--- a/DEE-OPF/E2_OPF_Perdidas_Congest_Elastica.xlsx
+++ b/DEE-OPF/E2_OPF_Perdidas_Congest_Elastica.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/pm_deoliveiradejes_uniandes_edu_co/Documents/MASEP-OPE/DEE-OPF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1025" documentId="8_{5760BE0F-1F64-447B-A6AD-E34E46961D31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4BAFE082-48C6-ED48-82AE-EB9B171A243C}"/>
+  <xr:revisionPtr revIDLastSave="1039" documentId="8_{5760BE0F-1F64-447B-A6AD-E34E46961D31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4592952C-53CD-7F42-A035-DAEF28EDEEF4}"/>
   <bookViews>
-    <workbookView xWindow="44280" yWindow="400" windowWidth="36520" windowHeight="20540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35480" yWindow="400" windowWidth="36520" windowHeight="20540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="33" r:id="rId1"/>
@@ -217,7 +217,7 @@
     <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1252,7 +1252,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1315,6 +1315,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1435,7 +1441,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1678,6 +1684,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2902,7 +2914,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11109367" y="3201694"/>
+          <a:off x="11085555" y="3193757"/>
           <a:ext cx="357972" cy="334466"/>
           <a:chOff x="513989" y="2399805"/>
           <a:chExt cx="713232" cy="713205"/>
@@ -3399,8 +3411,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13080646" y="3372654"/>
-          <a:ext cx="366113" cy="334466"/>
+          <a:off x="13043604" y="3364717"/>
+          <a:ext cx="363468" cy="334466"/>
           <a:chOff x="513989" y="2399805"/>
           <a:chExt cx="713232" cy="713205"/>
         </a:xfrm>
@@ -5707,23 +5719,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>263770</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>166076</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>634999</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166077</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>606971</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>154226</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>189549</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161218</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26">
+        <xdr:cNvPr id="28" name="Picture 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53690D12-807A-AC48-9ED0-A0F2ACFEDB81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB6276D-C099-6D4F-AFFF-AFDF2F5532A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5739,8 +5751,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10882924" y="5578230"/>
-          <a:ext cx="5266893" cy="2772381"/>
+          <a:off x="6340230" y="2325077"/>
+          <a:ext cx="4468473" cy="2417910"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6018,7 +6030,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6674,9 +6686,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11365,9 +11377,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5D22AB-44A9-4E44-9E4E-CC32C372C6AB}">
   <dimension ref="A1:AD140"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11843,9 +11855,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="7" t="s">
-        <v>90</v>
-      </c>
+      <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
@@ -11924,8 +11934,13 @@
       <c r="D17" s="100">
         <v>1.2036461794037643</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="E17" s="109">
+        <f>_PD3*Sbase</f>
+        <v>240.72923588075287</v>
+      </c>
+      <c r="F17" s="108" t="s">
+        <v>52</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -12304,6 +12319,7 @@
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
+      <c r="K28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
     </row>
@@ -12322,6 +12338,7 @@
       <c r="F29" s="37" t="s">
         <v>72</v>
       </c>
+      <c r="K29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="29"/>
     </row>
@@ -12340,6 +12357,7 @@
       <c r="F30" s="37" t="s">
         <v>73</v>
       </c>
+      <c r="K30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="29"/>
     </row>
@@ -12358,6 +12376,7 @@
       <c r="F31" s="37" t="s">
         <v>74</v>
       </c>
+      <c r="K31" s="7"/>
       <c r="M31" s="29"/>
       <c r="N31" s="7"/>
     </row>
